--- a/KahootQuestions.xlsx
+++ b/KahootQuestions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,27 +473,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Q: What type of attack involves an attacker intercepting communication between two parties to steal or modify data?</t>
+          <t>Q: Which OSI layer is responsible for logical addressing and routing?</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A: Phishing</t>
+          <t>A: Data Link Layer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>B: Man-in-the-Middle (MitM)</t>
+          <t>B: Network Layer</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>C: SQL Injection</t>
+          <t>C: Transport Layer</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>D: Cross-Site Scripting (XSS)</t>
+          <t>D: Session Layer</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -506,93 +506,93 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Q: Which of the following is a symmetric encryption algorithm?</t>
+          <t>Q: What is the default subnet mask for a Class B IP address?</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A: RSA</t>
+          <t>A: 255.0.0.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>B: Diffie-Hellman</t>
+          <t>B: 255.255.0.0</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>C: AES</t>
+          <t>C: 255.255.255.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>D: ECC</t>
+          <t>D: 255.255.255.255</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>30</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Q: What is the primary purpose of a honeypot in network security?</t>
+          <t>Q: Which protocol operates on port 53?</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A: To encrypt sensitive data</t>
+          <t>A: HTTP</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>B: To detect and analyze attacks by attracting malicious actors</t>
+          <t>B: FTP</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C: To filter incoming network traffic</t>
+          <t>C: DNS</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>D: To store backup copies of critical files</t>
+          <t>D: SMTP</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Q: Which authentication factor is represented by something you know?</t>
+          <t>Q: What type of cable uses light to transmit data?</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A: Fingerprint scan</t>
+          <t>A: Coaxial cable</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>B: Smart card</t>
+          <t>B: Twisted pair cable</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>C: Password</t>
+          <t>C: Fiber optic cable</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>D: Security token</t>
+          <t>D: Serial cable</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -605,27 +605,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Q: What does the principle of least privilege mean in security?</t>
+          <t>Q: What does DHCP stand for?</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A: Users should have the minimum level of access necessary to perform their job</t>
+          <t>A: Dynamic Host Configuration Protocol</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>B: All users should have administrator privileges</t>
+          <t>B: Domain Host Control Protocol</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>C: Passwords should be changed as infrequently as possible</t>
+          <t>C: Digital Host Communication Protocol</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>D: Security policies should be kept confidential</t>
+          <t>D: Direct Hardware Configuration Process</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -633,6 +633,171 @@
       </c>
       <c r="G6" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Q: Which device operates at Layer 2 of the OSI model?</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>A: Router</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B: Hub</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>C: Switch</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>D: Repeater</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>30</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Q: What is the maximum distance for a Cat6 Ethernet cable?</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>A: 50 meters</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B: 100 meters</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>C: 200 meters</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>D: 500 meters</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>30</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Q: Which IP address range is reserved for private networks?</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>A: 192.168.0.0 to 192.168.255.255</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B: 10.0.0.0 to 10.0.0.255</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>C: 172.16.0.0 to 172.31.255.255</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>D: Both A and C</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>30</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Q: What does NAT stand for in networking?</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>A: Network Address Translation</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B: National Access Technology</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>C: Network Authentication Tool</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>D: Node Address Transfer</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>30</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Q: Which topology connects all devices to a central hub or switch?</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>A: Bus topology</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B: Ring topology</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>C: Star topology</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>D: Mesh topology</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>30</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
